--- a/LaTeX/Experiment/Results/VaryCatalyst.xlsx
+++ b/LaTeX/Experiment/Results/VaryCatalyst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="11790"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="0.01 CS" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -228,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -248,6 +254,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,6 +284,38 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show The Volume Of Hydrogen Produced</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 0.2 Molar Sulfuric Acid and 0.01 Molar Copper Sulfate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -285,20 +325,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:trendline>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.3387139107611548E-2"/>
-                  <c:y val="-5.5107538641003206E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
+          <c:tx>
+            <c:v>Repeat 1</c:v>
+          </c:tx>
           <c:cat>
             <c:numRef>
               <c:f>'0.01 CS'!$G$5:$G$15</c:f>
@@ -351,34 +380,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.833333333333332</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.5</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.333333333333332</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.833333333333332</c:v>
+                  <c:v>24.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>25.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.333333333333332</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.833333333333332</c:v>
+                  <c:v>27.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,21 +424,42 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61737984"/>
-        <c:axId val="94782208"/>
+        <c:axId val="66595840"/>
+        <c:axId val="66610304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61737984"/>
+        <c:axId val="66595840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94782208"/>
+        <c:crossAx val="66610304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -417,20 +467,1246 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94782208"/>
+        <c:axId val="66610304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66595840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show The Volume Of Hydrogen Produced</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 0.2 Molar Sulfuric Acid and 0.02 Molar Copper Sulfate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Repeat 1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.01 CS'!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.02 CS'!$M$5:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.166666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="77801344"/>
+        <c:axId val="77807616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77801344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61737984"/>
+        <c:crossAx val="77807616"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77807616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77801344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show The Volume Of Hydrogen Produced</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 0.2 Molar Sulfuric Acid and 0.03 Molar Copper Sulfate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.01 CS'!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.03 CS'!$M$5:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="66535808"/>
+        <c:axId val="66537728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66535808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66537728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66537728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66535808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show The Volume Of Hydrogen Produced</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 0.2 Molar Sulfuric Acid and 0.04 Molar Copper Sulfate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.01 CS'!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.04 CS'!$M$5:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.333333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="77722752"/>
+        <c:axId val="77724672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77722752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77724672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77724672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77722752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show The Volume Of Hydrogen Produced</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 0.2 Molar Sulfuric Acid and 0.05 Molar Copper Sulfate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.01 CS'!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.05 CS'!$M$5:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.333333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="77544832"/>
+        <c:axId val="77731328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77544832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77731328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77731328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77544832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show The Volume Of Hydrogen Produced</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 0.2 Molar Sulfuric Acid and 0.06 Molar Copper Sulfate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.01 CS'!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.06 CS'!$M$5:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="77776384"/>
+        <c:axId val="77778304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77776384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77778304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77778304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77776384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -536,21 +1812,208 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>125398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>64753</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>62300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>131428</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22627</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>131428</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>32152</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>131428</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22627</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>131428</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22627</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>131428</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22627</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -856,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +2387,7 @@
       <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="15">
         <v>2</v>
       </c>
       <c r="G5" s="8">
@@ -938,12 +2401,9 @@
         <f>D5-1</f>
         <v>0</v>
       </c>
-      <c r="J5" s="10">
-        <f>E5-2</f>
-        <v>0</v>
-      </c>
+      <c r="J5" s="10"/>
       <c r="L5">
-        <f>(H5+I5+J5)/3</f>
+        <f t="shared" ref="L5:L15" si="0">(H5+I5+J5)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -957,27 +2417,24 @@
       <c r="D6" s="13">
         <v>8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="16">
         <v>10</v>
       </c>
       <c r="G6" s="11">
         <v>10</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" ref="H6:H14" si="0">C6-1</f>
+        <f t="shared" ref="H6:H14" si="1">C6-1</f>
         <v>7.5</v>
       </c>
       <c r="I6" s="10">
-        <f t="shared" ref="I6:I14" si="1">D6-1</f>
+        <f t="shared" ref="I6:I14" si="2">D6-1</f>
         <v>7</v>
       </c>
-      <c r="J6" s="10">
-        <f t="shared" ref="J6:J15" si="2">E6-2</f>
-        <v>8</v>
-      </c>
+      <c r="J6" s="10"/>
       <c r="L6">
-        <f t="shared" ref="L6:L15" si="3">(H6+I6+J6)/3</f>
-        <v>7.5</v>
+        <f t="shared" si="0"/>
+        <v>7.25</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -990,26 +2447,23 @@
       <c r="D7" s="13">
         <v>15</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="16">
         <v>15.5</v>
       </c>
       <c r="G7" s="11">
         <v>20</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I7" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J7" s="10">
-        <f t="shared" si="2"/>
-        <v>13.5</v>
-      </c>
+      <c r="J7" s="10"/>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
     </row>
@@ -1023,27 +2477,24 @@
       <c r="D8" s="13">
         <v>18</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="16">
         <v>20</v>
       </c>
       <c r="G8" s="11">
         <v>30</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="J8" s="10">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+      <c r="J8" s="10"/>
       <c r="L8">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>16.5</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1056,27 +2507,24 @@
       <c r="D9" s="13">
         <v>20.5</v>
       </c>
-      <c r="E9" s="13">
-        <v>23</v>
+      <c r="E9" s="16">
+        <v>25.5</v>
       </c>
       <c r="G9" s="11">
         <v>40</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
-      <c r="J9" s="10">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
+      <c r="J9" s="10"/>
       <c r="L9">
-        <f t="shared" si="3"/>
-        <v>19.833333333333332</v>
+        <f t="shared" si="0"/>
+        <v>19.25</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,27 +2537,24 @@
       <c r="D10" s="13">
         <v>22.5</v>
       </c>
-      <c r="E10" s="13">
-        <v>26.5</v>
+      <c r="E10" s="16">
+        <v>30</v>
       </c>
       <c r="G10" s="11">
         <v>50</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.5</v>
       </c>
-      <c r="J10" s="10">
-        <f t="shared" si="2"/>
-        <v>24.5</v>
-      </c>
+      <c r="J10" s="10"/>
       <c r="L10">
-        <f t="shared" si="3"/>
-        <v>22.5</v>
+        <f t="shared" si="0"/>
+        <v>21.5</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1122,27 +2567,24 @@
       <c r="D11" s="13">
         <v>24</v>
       </c>
-      <c r="E11" s="13">
-        <v>29</v>
+      <c r="E11" s="16">
+        <v>32.5</v>
       </c>
       <c r="G11" s="11">
         <v>60</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="J11" s="10">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
+      <c r="J11" s="10"/>
       <c r="L11">
-        <f t="shared" si="3"/>
-        <v>24.333333333333332</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1155,27 +2597,24 @@
       <c r="D12" s="13">
         <v>25.5</v>
       </c>
-      <c r="E12" s="13">
-        <v>31</v>
+      <c r="E12" s="16">
+        <v>36</v>
       </c>
       <c r="G12" s="11">
         <v>70</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.5</v>
       </c>
-      <c r="J12" s="10">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
+      <c r="J12" s="10"/>
       <c r="L12">
-        <f t="shared" si="3"/>
-        <v>25.833333333333332</v>
+        <f t="shared" si="0"/>
+        <v>24.25</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1188,27 +2627,24 @@
       <c r="D13" s="13">
         <v>26.5</v>
       </c>
-      <c r="E13" s="13">
-        <v>32.5</v>
+      <c r="E13" s="16">
+        <v>38</v>
       </c>
       <c r="G13" s="11">
         <v>80</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" si="2"/>
-        <v>30.5</v>
-      </c>
+      <c r="J13" s="10"/>
       <c r="L13">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>25.25</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1221,27 +2657,24 @@
       <c r="D14" s="13">
         <v>27.5</v>
       </c>
-      <c r="E14" s="13">
-        <v>34</v>
+      <c r="E14" s="16">
+        <v>40</v>
       </c>
       <c r="G14" s="11">
         <v>90</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.5</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.5</v>
       </c>
-      <c r="J14" s="10">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
+      <c r="J14" s="10"/>
       <c r="L14">
-        <f t="shared" si="3"/>
-        <v>28.333333333333332</v>
+        <f t="shared" si="0"/>
+        <v>26.5</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1254,8 +2687,8 @@
       <c r="D15" s="13">
         <v>28.5</v>
       </c>
-      <c r="E15" s="13">
-        <v>36</v>
+      <c r="E15" s="16">
+        <v>42.5</v>
       </c>
       <c r="G15" s="11">
         <v>100</v>
@@ -1268,13 +2701,10 @@
         <f>D15-1</f>
         <v>27.5</v>
       </c>
-      <c r="J15" s="10">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
+      <c r="J15" s="10"/>
       <c r="L15">
-        <f t="shared" si="3"/>
-        <v>29.833333333333332</v>
+        <f t="shared" si="0"/>
+        <v>27.75</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1288,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,6 +3142,7 @@
     <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1719,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,6 +3574,7 @@
     <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2150,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,6 +4006,7 @@
     <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2581,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,6 +4437,7 @@
     <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3011,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3435,6 +4869,7 @@
     <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LaTeX/Experiment/Results/VaryCatalyst.xlsx
+++ b/LaTeX/Experiment/Results/VaryCatalyst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="20730" windowHeight="11700" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0.01 CS" sheetId="1" r:id="rId1"/>
@@ -328,6 +328,19 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'0.01 CS'!$G$5:$G$15</c:f>
@@ -424,11 +437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66595840"/>
-        <c:axId val="66610304"/>
+        <c:axId val="49490944"/>
+        <c:axId val="49525888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66595840"/>
+        <c:axId val="49490944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66610304"/>
+        <c:crossAx val="49525888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -467,7 +480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66610304"/>
+        <c:axId val="49525888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -499,7 +512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66595840"/>
+        <c:crossAx val="49490944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -559,6 +572,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -573,6 +587,20 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'0.01 CS'!$G$5:$G$15</c:f>
@@ -669,11 +697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77801344"/>
-        <c:axId val="77807616"/>
+        <c:axId val="40232832"/>
+        <c:axId val="40235008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77801344"/>
+        <c:axId val="40232832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,13 +725,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77807616"/>
+        <c:crossAx val="40235008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -711,7 +740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77807616"/>
+        <c:axId val="40235008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -736,13 +765,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77801344"/>
+        <c:crossAx val="40232832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -756,6 +786,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -802,6 +833,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -813,6 +845,20 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'0.01 CS'!$G$5:$G$15</c:f>
@@ -909,11 +955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66535808"/>
-        <c:axId val="66537728"/>
+        <c:axId val="40272256"/>
+        <c:axId val="40274176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66535808"/>
+        <c:axId val="40272256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,13 +983,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66537728"/>
+        <c:crossAx val="40274176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -951,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66537728"/>
+        <c:axId val="40274176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -976,13 +1023,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66535808"/>
+        <c:crossAx val="40272256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -996,6 +1044,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1042,6 +1091,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1053,6 +1103,20 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'0.01 CS'!$G$5:$G$15</c:f>
@@ -1149,11 +1213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77722752"/>
-        <c:axId val="77724672"/>
+        <c:axId val="59546240"/>
+        <c:axId val="59552512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77722752"/>
+        <c:axId val="59546240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,13 +1241,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77724672"/>
+        <c:crossAx val="59552512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1191,7 +1256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77724672"/>
+        <c:axId val="59552512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1216,13 +1281,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77722752"/>
+        <c:crossAx val="59546240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1236,6 +1302,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1294,6 +1361,20 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'0.01 CS'!$G$5:$G$15</c:f>
@@ -1390,11 +1471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77544832"/>
-        <c:axId val="77731328"/>
+        <c:axId val="59595392"/>
+        <c:axId val="59597568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77544832"/>
+        <c:axId val="59595392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77731328"/>
+        <c:crossAx val="59597568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1433,7 +1514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77731328"/>
+        <c:axId val="59597568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1465,7 +1546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77544832"/>
+        <c:crossAx val="59595392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1525,6 +1606,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1536,6 +1618,20 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'0.01 CS'!$G$5:$G$15</c:f>
@@ -1632,11 +1728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77776384"/>
-        <c:axId val="77778304"/>
+        <c:axId val="59692160"/>
+        <c:axId val="59694080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77776384"/>
+        <c:axId val="59692160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,13 +1756,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77778304"/>
+        <c:crossAx val="59694080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1674,7 +1771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77778304"/>
+        <c:axId val="59694080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1698,15 +1795,259 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77776384"/>
+        <c:crossAx val="59692160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Progress Graph for the Catalysed Zinc and Sulfuric Acid Reaction</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>ALL!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ALL!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2069000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77778000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.21739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5555600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="145600512"/>
+        <c:axId val="145602048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="145600512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Sulfuric Acid Concentration (mol dm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>-3</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145602048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="145602048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Rate (mol dm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:t>-3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:t>-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.8579494775087356E-2"/>
+              <c:y val="0.34412446230179838"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145600512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1842,6 +2183,86 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>529890</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41610</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9388140" y="3055327"/>
+          <a:ext cx="3148225" cy="2019879"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>24019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>597728</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1883,6 +2304,51 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1096</cdr:x>
+      <cdr:y>0.29831</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92028</cdr:x>
+      <cdr:y>0.83807</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="679911" y="1095375"/>
+          <a:ext cx="5029136" cy="1981939"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1919,7 +2385,52 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09427</cdr:x>
+      <cdr:y>0.29227</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61561</cdr:x>
+      <cdr:y>0.83955</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="585666" y="1084384"/>
+          <a:ext cx="3238988" cy="2030575"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1956,7 +2467,52 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09534</cdr:x>
+      <cdr:y>0.29297</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5971</cdr:x>
+      <cdr:y>0.83689</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="594978" y="1078585"/>
+          <a:ext cx="3131294" cy="2002470"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1990,10 +2546,55 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9870281" y="1678781"/>
+          <a:ext cx="2143125" cy="1988857"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2025,6 +2626,51 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9971942" y="1677865"/>
+          <a:ext cx="2432539" cy="2022232"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2317,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,6 +3354,12 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f>70/58</f>
+        <v>1.2068965517241379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2716,10 +3368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,6 +3792,12 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f>70/90</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3148,10 +3806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3572,6 +4230,12 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f>70/60</f>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3580,10 +4244,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4004,6 +4668,12 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f>70/57.5</f>
+        <v>1.2173913043478262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4012,10 +4682,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4435,6 +5105,12 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f>70/40</f>
+        <v>1.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4443,10 +5119,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4867,6 +5543,12 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>70/45</f>
+        <v>1.5555555555555556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4875,14 +5557,64 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>1.2069000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.02</v>
+      </c>
+      <c r="D5">
+        <v>0.77778000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>1.1666700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.04</v>
+      </c>
+      <c r="D7">
+        <v>1.21739</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>1.5555600000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LaTeX/Experiment/Results/VaryCatalyst.xlsx
+++ b/LaTeX/Experiment/Results/VaryCatalyst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="20730" windowHeight="11700" activeTab="6"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="20730" windowHeight="11700" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0.01 CS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="8">
   <si>
     <t>Volume of Hydrogen Produced (ml)</t>
   </si>
@@ -39,16 +39,75 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Concentration of Copper Sulfate (molar)</t>
+  </si>
+  <si>
+    <r>
+      <t>Initial Rate of Reaction (mol dm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -234,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -256,6 +315,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,11 +505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49490944"/>
-        <c:axId val="49525888"/>
+        <c:axId val="98707712"/>
+        <c:axId val="98718080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49490944"/>
+        <c:axId val="98707712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,10 +524,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -472,7 +540,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49525888"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98718080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -480,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49525888"/>
+        <c:axId val="98718080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -496,10 +574,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
@@ -512,7 +590,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49490944"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98707712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -697,11 +785,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40232832"/>
-        <c:axId val="40235008"/>
+        <c:axId val="101026048"/>
+        <c:axId val="101036416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40232832"/>
+        <c:axId val="101026048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,10 +804,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -732,7 +820,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40235008"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101036416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -740,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40235008"/>
+        <c:axId val="101036416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -756,10 +854,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
@@ -772,7 +870,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40232832"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101026048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -955,11 +1063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40272256"/>
-        <c:axId val="40274176"/>
+        <c:axId val="101398400"/>
+        <c:axId val="101404672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40272256"/>
+        <c:axId val="101398400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,10 +1082,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -990,7 +1098,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40274176"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101404672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -998,7 +1116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40274176"/>
+        <c:axId val="101404672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1014,10 +1132,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
@@ -1030,7 +1148,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40272256"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101398400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1213,11 +1341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59546240"/>
-        <c:axId val="59552512"/>
+        <c:axId val="101234176"/>
+        <c:axId val="101236096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59546240"/>
+        <c:axId val="101234176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,10 +1360,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -1248,7 +1376,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59552512"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101236096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1256,7 +1394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59552512"/>
+        <c:axId val="101236096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1272,10 +1410,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
@@ -1288,7 +1426,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59546240"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101234176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1471,11 +1619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59595392"/>
-        <c:axId val="59597568"/>
+        <c:axId val="101266176"/>
+        <c:axId val="101268096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59595392"/>
+        <c:axId val="101266176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,10 +1638,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -1506,7 +1654,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59597568"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101268096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1514,7 +1672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59597568"/>
+        <c:axId val="101268096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1530,10 +1688,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
@@ -1546,7 +1704,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59595392"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101266176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1728,11 +1896,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59692160"/>
-        <c:axId val="59694080"/>
+        <c:axId val="101368192"/>
+        <c:axId val="101370112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59692160"/>
+        <c:axId val="101368192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,10 +1915,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -1763,7 +1931,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59694080"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101370112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1771,7 +1949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59694080"/>
+        <c:axId val="101370112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1786,10 +1964,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
@@ -1802,7 +1980,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59692160"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101368192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1907,7 +2095,7 @@
             <c:numRef>
               <c:f>ALL!$D$4:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.2069000000000001</c:v>
@@ -1942,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145600512"/>
-        <c:axId val="145602048"/>
+        <c:axId val="110190592"/>
+        <c:axId val="110192512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145600512"/>
+        <c:axId val="110190592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,21 +2147,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Sulfuric Acid Concentration (mol dm</a:t>
+                  <a:t>Copper Sulfate Concentration (mol dm</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="30000">
+                  <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>-3</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1400" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1984,7 +2178,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145602048"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110192512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1992,7 +2196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145602048"/>
+        <c:axId val="110192512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,26 +2210,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Rate (mol dm</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="30000"/>
                   <a:t>-3</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t> s</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="30000"/>
                   <a:t>-1</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>)</a:t>
                 </a:r>
               </a:p>
@@ -2041,13 +2245,23 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145600512"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110190592"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2155,12 +2369,12 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>125398</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>64753</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>376515</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:to>
@@ -2185,16 +2399,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>529890</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>29307</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>41610</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>136860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2203,8 +2417,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9388140" y="3055327"/>
-          <a:ext cx="3148225" cy="2019879"/>
+          <a:off x="9492915" y="2524125"/>
+          <a:ext cx="3661110" cy="2432385"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2241,10 +2455,10 @@
       <xdr:rowOff>24019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>597728</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121567</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2270,16 +2484,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>131428</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22627</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145489</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2308,10 +2522,10 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.1096</cdr:x>
-      <cdr:y>0.29831</cdr:y>
+      <cdr:y>0.25592</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.92028</cdr:x>
+      <cdr:x>0.88266</cdr:x>
       <cdr:y>0.83807</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -2321,8 +2535,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="679911" y="1095375"/>
-          <a:ext cx="5029136" cy="1981939"/>
+          <a:off x="800702" y="1104900"/>
+          <a:ext cx="5647724" cy="2513417"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -2358,10 +2572,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>131428</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>32152</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>432631</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2389,12 +2603,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09427</cdr:x>
-      <cdr:y>0.29227</cdr:y>
+      <cdr:x>0.08729</cdr:x>
+      <cdr:y>0.2366</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.61561</cdr:x>
-      <cdr:y>0.83955</cdr:y>
+      <cdr:x>0.61838</cdr:x>
+      <cdr:y>0.85301</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -2403,8 +2617,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="585666" y="1084384"/>
-          <a:ext cx="3238988" cy="2030575"/>
+          <a:off x="676275" y="1085851"/>
+          <a:ext cx="4114800" cy="2828924"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -2434,16 +2648,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>131428</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22627</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173191</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2472,10 +2686,10 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.09534</cdr:x>
-      <cdr:y>0.29297</cdr:y>
+      <cdr:y>0.25998</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.5971</cdr:x>
+      <cdr:x>0.60795</cdr:x>
       <cdr:y>0.83689</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -2485,8 +2699,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="594978" y="1078585"/>
-          <a:ext cx="3131294" cy="2002470"/>
+          <a:off x="685626" y="1104900"/>
+          <a:ext cx="3686350" cy="2451791"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -2516,16 +2730,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>131428</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22627</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>131110</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2549,15 +2763,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>321468</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>185060</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42185</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2566,8 +2780,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9870281" y="1678781"/>
-          <a:ext cx="2143125" cy="1988857"/>
+          <a:off x="9972675" y="1695450"/>
+          <a:ext cx="2619375" cy="2594885"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2598,16 +2812,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>612912</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>131428</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22627</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>94079</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2630,16 +2844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>586154</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>72632</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>43961</xdr:rowOff>
+      <xdr:rowOff>74543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>586154</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>538370</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165654</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2648,8 +2862,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9971942" y="1677865"/>
-          <a:ext cx="2432539" cy="2022232"/>
+          <a:off x="10127719" y="1689652"/>
+          <a:ext cx="2917390" cy="2501350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2965,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,8 +3584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4246,8 +4460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4684,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="I3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5121,8 +5335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H15"/>
+    <sheetView topLeftCell="J3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5557,64 +5771,78 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D9"/>
+  <dimension ref="C2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4">
+    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="19">
         <v>0.01</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="20">
         <v>1.2069000000000001</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5">
+      <c r="C5" s="18">
         <v>0.02</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="21">
         <v>0.77778000000000003</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6">
+      <c r="C6" s="18">
         <v>0.03</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="21">
         <v>1.1666700000000001</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7">
+      <c r="C7" s="18">
         <v>0.04</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="21">
         <v>1.21739</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8">
+      <c r="C8" s="18">
         <v>0.05</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="21">
         <v>1.75</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9">
+      <c r="C9" s="18">
         <v>0.06</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="21">
         <v>1.5555600000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LaTeX/Experiment/Results/VaryCatalyst.xlsx
+++ b/LaTeX/Experiment/Results/VaryCatalyst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="20730" windowHeight="11700" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="20730" windowHeight="11700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0.01 CS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="8">
   <si>
     <t>Volume of Hydrogen Produced (ml)</t>
   </si>
@@ -96,7 +96,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -322,8 +322,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +412,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'0.01 CS'!$G$5:$G$15</c:f>
+              <c:f>'0.01 CS'!$H$5:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -505,11 +506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98707712"/>
-        <c:axId val="98718080"/>
+        <c:axId val="64053248"/>
+        <c:axId val="64055936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98707712"/>
+        <c:axId val="64053248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,7 +551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98718080"/>
+        <c:crossAx val="64055936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -558,7 +559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98718080"/>
+        <c:axId val="64055936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -600,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98707712"/>
+        <c:crossAx val="64053248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -691,7 +692,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'0.01 CS'!$G$5:$G$15</c:f>
+              <c:f>'0.01 CS'!$H$5:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -785,11 +786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101026048"/>
-        <c:axId val="101036416"/>
+        <c:axId val="64113664"/>
+        <c:axId val="65492480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101026048"/>
+        <c:axId val="64113664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101036416"/>
+        <c:crossAx val="65492480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,7 +839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101036416"/>
+        <c:axId val="65492480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -880,7 +881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101026048"/>
+        <c:crossAx val="64113664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -969,7 +970,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'0.01 CS'!$G$5:$G$15</c:f>
+              <c:f>'0.01 CS'!$H$5:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1063,11 +1064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101398400"/>
-        <c:axId val="101404672"/>
+        <c:axId val="104294656"/>
+        <c:axId val="109118208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101398400"/>
+        <c:axId val="104294656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101404672"/>
+        <c:crossAx val="109118208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1116,7 +1117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101404672"/>
+        <c:axId val="109118208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1158,7 +1159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101398400"/>
+        <c:crossAx val="104294656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1247,7 +1248,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'0.01 CS'!$G$5:$G$15</c:f>
+              <c:f>'0.01 CS'!$H$5:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1341,11 +1342,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101234176"/>
-        <c:axId val="101236096"/>
+        <c:axId val="115976448"/>
+        <c:axId val="124992128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101234176"/>
+        <c:axId val="115976448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101236096"/>
+        <c:crossAx val="124992128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1394,7 +1395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101236096"/>
+        <c:axId val="124992128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1436,7 +1437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101234176"/>
+        <c:crossAx val="115976448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1525,7 +1526,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'0.01 CS'!$G$5:$G$15</c:f>
+              <c:f>'0.01 CS'!$H$5:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1619,11 +1620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101266176"/>
-        <c:axId val="101268096"/>
+        <c:axId val="66070784"/>
+        <c:axId val="66285952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101266176"/>
+        <c:axId val="66070784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101268096"/>
+        <c:crossAx val="66285952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1672,7 +1673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101268096"/>
+        <c:axId val="66285952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1714,7 +1715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101266176"/>
+        <c:crossAx val="66070784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1802,7 +1803,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'0.01 CS'!$G$5:$G$15</c:f>
+              <c:f>'0.01 CS'!$H$5:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1896,11 +1897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101368192"/>
-        <c:axId val="101370112"/>
+        <c:axId val="66320256"/>
+        <c:axId val="66809856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101368192"/>
+        <c:axId val="66320256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101370112"/>
+        <c:crossAx val="66809856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1949,7 +1950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101370112"/>
+        <c:axId val="66809856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1990,7 +1991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101368192"/>
+        <c:crossAx val="66320256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2130,11 +2131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110190592"/>
-        <c:axId val="110192512"/>
+        <c:axId val="67352064"/>
+        <c:axId val="67353984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110190592"/>
+        <c:axId val="67352064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,7 +2189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110192512"/>
+        <c:crossAx val="67353984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110192512"/>
+        <c:axId val="67353984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2260,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110190592"/>
+        <c:crossAx val="67352064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3179,8 +3180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,13 +3201,14 @@
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -3221,16 +3223,19 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L4" t="s">
@@ -3250,20 +3255,24 @@
       <c r="E5" s="15">
         <v>2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="F5" s="22">
+        <f>SUM(C5:D5)/2</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <f>C5-1</f>
         <v>0</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <f>D5-1</f>
         <v>0</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="L5">
-        <f t="shared" ref="L5:L15" si="0">(H5+I5+J5)/2</f>
+        <f>(I5+J5+K5)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -3280,20 +3289,24 @@
       <c r="E6" s="16">
         <v>10</v>
       </c>
-      <c r="G6" s="11">
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:F15" si="0">SUM(C6:D6)/2</f>
+        <v>8.25</v>
+      </c>
+      <c r="H6" s="11">
         <v>10</v>
       </c>
-      <c r="H6" s="9">
-        <f t="shared" ref="H6:H14" si="1">C6-1</f>
+      <c r="I6" s="9">
+        <f>C6-1</f>
         <v>7.5</v>
       </c>
-      <c r="I6" s="10">
-        <f t="shared" ref="I6:I14" si="2">D6-1</f>
+      <c r="J6" s="10">
+        <f>D6-1</f>
         <v>7</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f>(I6+J6+K6)/2</f>
         <v>7.25</v>
       </c>
     </row>
@@ -3310,20 +3323,24 @@
       <c r="E7" s="16">
         <v>15.5</v>
       </c>
-      <c r="G7" s="11">
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="H7" s="11">
         <v>20</v>
       </c>
-      <c r="H7" s="9">
-        <f t="shared" si="1"/>
+      <c r="I7" s="9">
+        <f>C7-1</f>
         <v>13</v>
       </c>
-      <c r="I7" s="10">
-        <f t="shared" si="2"/>
+      <c r="J7" s="10">
+        <f>D7-1</f>
         <v>14</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f>(I7+J7+K7)/2</f>
         <v>13.5</v>
       </c>
     </row>
@@ -3340,20 +3357,24 @@
       <c r="E8" s="16">
         <v>20</v>
       </c>
-      <c r="G8" s="11">
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="H8" s="11">
         <v>30</v>
       </c>
-      <c r="H8" s="9">
-        <f t="shared" si="1"/>
+      <c r="I8" s="9">
+        <f>C8-1</f>
         <v>16</v>
       </c>
-      <c r="I8" s="10">
-        <f t="shared" si="2"/>
+      <c r="J8" s="10">
+        <f>D8-1</f>
         <v>17</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f>(I8+J8+K8)/2</f>
         <v>16.5</v>
       </c>
     </row>
@@ -3370,20 +3391,24 @@
       <c r="E9" s="16">
         <v>25.5</v>
       </c>
-      <c r="G9" s="11">
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>20.25</v>
+      </c>
+      <c r="H9" s="11">
         <v>40</v>
       </c>
-      <c r="H9" s="9">
-        <f t="shared" si="1"/>
+      <c r="I9" s="9">
+        <f>C9-1</f>
         <v>19</v>
       </c>
-      <c r="I9" s="10">
-        <f t="shared" si="2"/>
+      <c r="J9" s="10">
+        <f>D9-1</f>
         <v>19.5</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f>(I9+J9+K9)/2</f>
         <v>19.25</v>
       </c>
     </row>
@@ -3400,20 +3425,24 @@
       <c r="E10" s="16">
         <v>30</v>
       </c>
-      <c r="G10" s="11">
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="H10" s="11">
         <v>50</v>
       </c>
-      <c r="H10" s="9">
-        <f t="shared" si="1"/>
+      <c r="I10" s="9">
+        <f>C10-1</f>
         <v>21.5</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="2"/>
+      <c r="J10" s="10">
+        <f>D10-1</f>
         <v>21.5</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f>(I10+J10+K10)/2</f>
         <v>21.5</v>
       </c>
     </row>
@@ -3430,20 +3459,24 @@
       <c r="E11" s="16">
         <v>32.5</v>
       </c>
-      <c r="G11" s="11">
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H11" s="11">
         <v>60</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="1"/>
+      <c r="I11" s="9">
+        <f>C11-1</f>
         <v>23</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" si="2"/>
+      <c r="J11" s="10">
+        <f>D11-1</f>
         <v>23</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f>(I11+J11+K11)/2</f>
         <v>23</v>
       </c>
     </row>
@@ -3460,20 +3493,24 @@
       <c r="E12" s="16">
         <v>36</v>
       </c>
-      <c r="G12" s="11">
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>25.25</v>
+      </c>
+      <c r="H12" s="11">
         <v>70</v>
       </c>
-      <c r="H12" s="9">
-        <f t="shared" si="1"/>
+      <c r="I12" s="9">
+        <f>C12-1</f>
         <v>24</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" si="2"/>
+      <c r="J12" s="10">
+        <f>D12-1</f>
         <v>24.5</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f>(I12+J12+K12)/2</f>
         <v>24.25</v>
       </c>
     </row>
@@ -3490,20 +3527,24 @@
       <c r="E13" s="16">
         <v>38</v>
       </c>
-      <c r="G13" s="11">
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>26.25</v>
+      </c>
+      <c r="H13" s="11">
         <v>80</v>
       </c>
-      <c r="H13" s="9">
-        <f t="shared" si="1"/>
+      <c r="I13" s="9">
+        <f>C13-1</f>
         <v>25</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="2"/>
+      <c r="J13" s="10">
+        <f>D13-1</f>
         <v>25.5</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f>(I13+J13+K13)/2</f>
         <v>25.25</v>
       </c>
     </row>
@@ -3520,20 +3561,24 @@
       <c r="E14" s="16">
         <v>40</v>
       </c>
-      <c r="G14" s="11">
+      <c r="F14" s="22">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="H14" s="11">
         <v>90</v>
       </c>
-      <c r="H14" s="9">
-        <f t="shared" si="1"/>
+      <c r="I14" s="9">
+        <f>C14-1</f>
         <v>26.5</v>
       </c>
-      <c r="I14" s="10">
-        <f t="shared" si="2"/>
+      <c r="J14" s="10">
+        <f>D14-1</f>
         <v>26.5</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f>(I14+J14+K14)/2</f>
         <v>26.5</v>
       </c>
     </row>
@@ -3550,20 +3595,24 @@
       <c r="E15" s="16">
         <v>42.5</v>
       </c>
-      <c r="G15" s="11">
+      <c r="F15" s="22">
+        <f t="shared" si="0"/>
+        <v>28.75</v>
+      </c>
+      <c r="H15" s="11">
         <v>100</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="9">
         <f>C15-1</f>
         <v>28</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="10">
         <f>D15-1</f>
         <v>27.5</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f>(I15+J15+K15)/2</f>
         <v>27.75</v>
       </c>
     </row>
@@ -3584,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3605,7 +3654,8 @@
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
         <v>0</v>
@@ -3626,6 +3676,9 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3655,6 +3708,10 @@
       <c r="E5" s="10">
         <v>1.5</v>
       </c>
+      <c r="F5" s="22">
+        <f>SUM(C5:E5)/3</f>
+        <v>1.6666666666666667</v>
+      </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
@@ -3688,23 +3745,27 @@
       <c r="E6" s="13">
         <v>8.5</v>
       </c>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:F15" si="0">SUM(C6:E6)/3</f>
+        <v>8.5</v>
+      </c>
       <c r="H6" s="11">
         <v>10</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" ref="I6:I15" si="0">C6-2</f>
+        <f t="shared" ref="I6:I15" si="1">C6-2</f>
         <v>7</v>
       </c>
       <c r="J6" s="10">
-        <f t="shared" ref="J6:J14" si="1">D6-1.5</f>
+        <f t="shared" ref="J6:J14" si="2">D6-1.5</f>
         <v>6.5</v>
       </c>
       <c r="K6" s="10">
-        <f t="shared" ref="K6:K15" si="2">E6-1.5</f>
+        <f t="shared" ref="K6:K15" si="3">E6-1.5</f>
         <v>7</v>
       </c>
       <c r="M6" s="14">
-        <f t="shared" ref="M6:M15" si="3">(I6+J6+K6)/3</f>
+        <f t="shared" ref="M6:M15" si="4">(I6+J6+K6)/3</f>
         <v>6.833333333333333</v>
       </c>
     </row>
@@ -3721,23 +3782,27 @@
       <c r="E7" s="13">
         <v>15</v>
       </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
       <c r="H7" s="11">
         <v>20</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J7" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
       <c r="M7" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.833333333333334</v>
       </c>
     </row>
@@ -3754,23 +3819,27 @@
       <c r="E8" s="13">
         <v>19.5</v>
       </c>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>18.833333333333332</v>
+      </c>
       <c r="H8" s="11">
         <v>30</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="M8" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.166666666666668</v>
       </c>
     </row>
@@ -3787,23 +3856,27 @@
       <c r="E9" s="13">
         <v>22.5</v>
       </c>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>21.833333333333332</v>
+      </c>
       <c r="H9" s="11">
         <v>40</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.5</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="M9" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.166666666666668</v>
       </c>
     </row>
@@ -3820,23 +3893,27 @@
       <c r="E10" s="13">
         <v>25</v>
       </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
       <c r="H10" s="11">
         <v>50</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.5</v>
       </c>
       <c r="M10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.833333333333332</v>
       </c>
     </row>
@@ -3853,23 +3930,27 @@
       <c r="E11" s="13">
         <v>28</v>
       </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
       <c r="H11" s="11">
         <v>60</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.5</v>
       </c>
       <c r="M11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.833333333333332</v>
       </c>
     </row>
@@ -3886,23 +3967,27 @@
       <c r="E12" s="13">
         <v>31</v>
       </c>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>30.166666666666668</v>
+      </c>
       <c r="H12" s="11">
         <v>70</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.5</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.5</v>
       </c>
       <c r="M12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.5</v>
       </c>
     </row>
@@ -3919,23 +4004,27 @@
       <c r="E13" s="13">
         <v>33.5</v>
       </c>
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>32.833333333333336</v>
+      </c>
       <c r="H13" s="11">
         <v>80</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.5</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31.166666666666668</v>
       </c>
     </row>
@@ -3952,23 +4041,27 @@
       <c r="E14" s="13">
         <v>36</v>
       </c>
+      <c r="F14" s="22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="H14" s="11">
         <v>90</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.5</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.5</v>
       </c>
       <c r="M14" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -3985,11 +4078,15 @@
       <c r="E15" s="13">
         <v>37.5</v>
       </c>
+      <c r="F15" s="22">
+        <f t="shared" si="0"/>
+        <v>36.833333333333336</v>
+      </c>
       <c r="H15" s="11">
         <v>100</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="J15" s="10">
@@ -3997,11 +4094,11 @@
         <v>35.5</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="M15" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35.166666666666664</v>
       </c>
     </row>
@@ -4022,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4043,7 +4140,8 @@
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
         <v>0</v>
@@ -4064,6 +4162,9 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>1</v>
       </c>
@@ -4093,6 +4194,10 @@
       <c r="E5" s="10">
         <v>3</v>
       </c>
+      <c r="F5" s="22">
+        <f>SUM(C5:E5)/3</f>
+        <v>3</v>
+      </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
@@ -4126,11 +4231,15 @@
       <c r="E6" s="13">
         <v>11.5</v>
       </c>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:F15" si="1">SUM(C6:E6)/3</f>
+        <v>11.666666666666666</v>
+      </c>
       <c r="H6" s="11">
         <v>10</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" ref="I6:I15" si="1">C6-3</f>
+        <f t="shared" ref="I6:I15" si="2">C6-3</f>
         <v>8.5</v>
       </c>
       <c r="J6" s="9">
@@ -4142,7 +4251,7 @@
         <v>8.5</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="2">(I6+J6+K6)/3</f>
+        <f t="shared" ref="M6:M15" si="3">(I6+J6+K6)/3</f>
         <v>8.6666666666666661</v>
       </c>
     </row>
@@ -4159,11 +4268,15 @@
       <c r="E7" s="13">
         <v>17</v>
       </c>
+      <c r="F7" s="22">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
       <c r="H7" s="11">
         <v>20</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="J7" s="9">
@@ -4175,7 +4288,7 @@
         <v>14</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
     </row>
@@ -4192,11 +4305,15 @@
       <c r="E8" s="13">
         <v>22</v>
       </c>
+      <c r="F8" s="22">
+        <f t="shared" si="1"/>
+        <v>21.833333333333332</v>
+      </c>
       <c r="H8" s="11">
         <v>30</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
       <c r="J8" s="9">
@@ -4208,7 +4325,7 @@
         <v>19</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.833333333333332</v>
       </c>
     </row>
@@ -4225,11 +4342,15 @@
       <c r="E9" s="13">
         <v>25.5</v>
       </c>
+      <c r="F9" s="22">
+        <f t="shared" si="1"/>
+        <v>25.833333333333332</v>
+      </c>
       <c r="H9" s="11">
         <v>40</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J9" s="9">
@@ -4241,7 +4362,7 @@
         <v>22.5</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.833333333333332</v>
       </c>
     </row>
@@ -4258,11 +4379,15 @@
       <c r="E10" s="13">
         <v>28</v>
       </c>
+      <c r="F10" s="22">
+        <f t="shared" si="1"/>
+        <v>28.333333333333332</v>
+      </c>
       <c r="H10" s="11">
         <v>50</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J10" s="9">
@@ -4274,7 +4399,7 @@
         <v>25</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.333333333333332</v>
       </c>
     </row>
@@ -4291,11 +4416,15 @@
       <c r="E11" s="13">
         <v>31</v>
       </c>
+      <c r="F11" s="22">
+        <f t="shared" si="1"/>
+        <v>30.666666666666668</v>
+      </c>
       <c r="H11" s="11">
         <v>60</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="J11" s="9">
@@ -4307,7 +4436,7 @@
         <v>28</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.666666666666668</v>
       </c>
     </row>
@@ -4324,11 +4453,15 @@
       <c r="E12" s="13">
         <v>34</v>
       </c>
+      <c r="F12" s="22">
+        <f t="shared" si="1"/>
+        <v>34.5</v>
+      </c>
       <c r="H12" s="11">
         <v>70</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.5</v>
       </c>
       <c r="J12" s="9">
@@ -4340,7 +4473,7 @@
         <v>31</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.5</v>
       </c>
     </row>
@@ -4357,11 +4490,15 @@
       <c r="E13" s="13">
         <v>37</v>
       </c>
+      <c r="F13" s="22">
+        <f t="shared" si="1"/>
+        <v>37.333333333333336</v>
+      </c>
       <c r="H13" s="11">
         <v>80</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="J13" s="9">
@@ -4373,7 +4510,7 @@
         <v>34</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.333333333333336</v>
       </c>
     </row>
@@ -4390,11 +4527,15 @@
       <c r="E14" s="13">
         <v>40</v>
       </c>
+      <c r="F14" s="22">
+        <f t="shared" si="1"/>
+        <v>39.666666666666664</v>
+      </c>
       <c r="H14" s="11">
         <v>90</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="J14" s="9">
@@ -4406,7 +4547,7 @@
         <v>37</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
     </row>
@@ -4423,11 +4564,15 @@
       <c r="E15" s="13">
         <v>43</v>
       </c>
+      <c r="F15" s="22">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
       <c r="H15" s="11">
         <v>100</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="J15" s="9">
@@ -4439,7 +4584,7 @@
         <v>40</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.5</v>
       </c>
     </row>
@@ -4460,8 +4605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4481,7 +4626,8 @@
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
         <v>0</v>
@@ -4502,6 +4648,9 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>1</v>
       </c>
@@ -4531,6 +4680,10 @@
       <c r="E5" s="10">
         <v>4</v>
       </c>
+      <c r="F5" s="22">
+        <f>SUM(C5:E5)/3</f>
+        <v>3.6666666666666665</v>
+      </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
@@ -4564,23 +4717,27 @@
       <c r="E6" s="13">
         <v>13</v>
       </c>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:F15" si="0">SUM(C6:E6)/3</f>
+        <v>13.166666666666666</v>
+      </c>
       <c r="H6" s="11">
         <v>10</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" ref="I6:J15" si="0">C6-3.5</f>
+        <f t="shared" ref="I6:J15" si="1">C6-3.5</f>
         <v>10</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="K6" s="10">
-        <f t="shared" ref="K6:K15" si="1">E6-4</f>
+        <f t="shared" ref="K6:K15" si="2">E6-4</f>
         <v>9</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="2">(I6+J6+K6)/3</f>
+        <f t="shared" ref="M6:M15" si="3">(I6+J6+K6)/3</f>
         <v>9.5</v>
       </c>
     </row>
@@ -4597,23 +4754,27 @@
       <c r="E7" s="13">
         <v>18</v>
       </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="H7" s="11">
         <v>20</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K7" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.333333333333334</v>
       </c>
     </row>
@@ -4630,23 +4791,27 @@
       <c r="E8" s="13">
         <v>24</v>
       </c>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>24.166666666666668</v>
+      </c>
       <c r="H8" s="11">
         <v>30</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.5</v>
       </c>
     </row>
@@ -4663,23 +4828,27 @@
       <c r="E9" s="13">
         <v>28</v>
       </c>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
       <c r="H9" s="11">
         <v>40</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.666666666666668</v>
       </c>
     </row>
@@ -4696,23 +4865,27 @@
       <c r="E10" s="13">
         <v>33</v>
       </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="H10" s="11">
         <v>50</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.5</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.5</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.666666666666668</v>
       </c>
     </row>
@@ -4729,23 +4902,27 @@
       <c r="E11" s="13">
         <v>37</v>
       </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>36.666666666666664</v>
+      </c>
       <c r="H11" s="11">
         <v>60</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.5</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -4762,23 +4939,27 @@
       <c r="E12" s="13">
         <v>40.5</v>
       </c>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="H12" s="11">
         <v>70</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.333333333333336</v>
       </c>
     </row>
@@ -4795,23 +4976,27 @@
       <c r="E13" s="13">
         <v>44</v>
       </c>
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="H13" s="11">
         <v>80</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.5</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.333333333333336</v>
       </c>
     </row>
@@ -4828,23 +5013,27 @@
       <c r="E14" s="13">
         <v>47</v>
       </c>
+      <c r="F14" s="22">
+        <f t="shared" si="0"/>
+        <v>46.166666666666664</v>
+      </c>
       <c r="H14" s="11">
         <v>90</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.5</v>
       </c>
     </row>
@@ -4861,23 +5050,27 @@
       <c r="E15" s="13">
         <v>50</v>
       </c>
+      <c r="F15" s="22">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="H15" s="11">
         <v>100</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.5</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.5</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.333333333333336</v>
       </c>
     </row>
@@ -4898,8 +5091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="I3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4918,7 +5111,8 @@
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
         <v>0</v>
@@ -4939,6 +5133,9 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>1</v>
       </c>
@@ -4968,6 +5165,10 @@
       <c r="E5" s="10">
         <v>4</v>
       </c>
+      <c r="F5" s="22">
+        <f>SUM(C5:E5)/3</f>
+        <v>4.166666666666667</v>
+      </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
@@ -5001,23 +5202,27 @@
       <c r="E6" s="13">
         <v>18</v>
       </c>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:F15" si="0">SUM(C6:E6)/3</f>
+        <v>17.333333333333332</v>
+      </c>
       <c r="H6" s="11">
         <v>10</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" ref="I6:I15" si="0">C6-4</f>
+        <f t="shared" ref="I6:I15" si="1">C6-4</f>
         <v>13</v>
       </c>
       <c r="J6" s="10">
-        <f t="shared" ref="J6:J15" si="1">D6-4.5</f>
+        <f t="shared" ref="J6:J15" si="2">D6-4.5</f>
         <v>12.5</v>
       </c>
       <c r="K6" s="10">
-        <f t="shared" ref="K6:K15" si="2">E6-4</f>
+        <f t="shared" ref="K6:K15" si="3">E6-4</f>
         <v>14</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="3">(I6+J6+K6)/3</f>
+        <f t="shared" ref="M6:M15" si="4">(I6+J6+K6)/3</f>
         <v>13.166666666666666</v>
       </c>
     </row>
@@ -5034,23 +5239,27 @@
       <c r="E7" s="13">
         <v>23.5</v>
       </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>23.666666666666668</v>
+      </c>
       <c r="H7" s="11">
         <v>20</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
       <c r="J7" s="10">
-        <f t="shared" si="1"/>
-        <v>19.5</v>
-      </c>
-      <c r="K7" s="10">
         <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
+      <c r="K7" s="10">
+        <f t="shared" si="3"/>
+        <v>19.5</v>
+      </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
     </row>
@@ -5067,23 +5276,27 @@
       <c r="E8" s="13">
         <v>28.5</v>
       </c>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="H8" s="11">
         <v>30</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
       <c r="J8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.5</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.5</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.833333333333332</v>
       </c>
     </row>
@@ -5100,23 +5313,27 @@
       <c r="E9" s="13">
         <v>32</v>
       </c>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>31.166666666666668</v>
+      </c>
       <c r="H9" s="11">
         <v>40</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.5</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.5</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
@@ -5133,23 +5350,27 @@
       <c r="E10" s="13">
         <v>36</v>
       </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>35.166666666666664</v>
+      </c>
       <c r="H10" s="11">
         <v>50</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.5</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.5</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -5166,23 +5387,27 @@
       <c r="E11" s="13">
         <v>42</v>
       </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>39.666666666666664</v>
+      </c>
       <c r="H11" s="11">
         <v>60</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="J11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.5</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35.5</v>
       </c>
     </row>
@@ -5199,23 +5424,27 @@
       <c r="E12" s="13">
         <v>48</v>
       </c>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>44.166666666666664</v>
+      </c>
       <c r="H12" s="11">
         <v>70</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
@@ -5232,23 +5461,27 @@
       <c r="E13" s="13">
         <v>51</v>
       </c>
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>48.166666666666664</v>
+      </c>
       <c r="H13" s="11">
         <v>80</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
@@ -5265,23 +5498,27 @@
       <c r="E14" s="13">
         <v>53</v>
       </c>
+      <c r="F14" s="22">
+        <f t="shared" si="0"/>
+        <v>54.333333333333336</v>
+      </c>
       <c r="H14" s="11">
         <v>90</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.5</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50.166666666666664</v>
       </c>
     </row>
@@ -5298,23 +5535,27 @@
       <c r="E15" s="13">
         <v>58</v>
       </c>
+      <c r="F15" s="22">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
       <c r="H15" s="11">
         <v>100</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.5</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.5</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.333333333333336</v>
       </c>
     </row>
@@ -5335,8 +5576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="J3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5356,7 +5597,8 @@
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2" t="s">
         <v>0</v>
@@ -5377,6 +5619,9 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>1</v>
       </c>
@@ -5406,6 +5651,10 @@
       <c r="E5" s="10">
         <v>5</v>
       </c>
+      <c r="F5" s="22">
+        <f>SUM(C5:E5)/3</f>
+        <v>4.666666666666667</v>
+      </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
@@ -5439,23 +5688,27 @@
       <c r="E6" s="13">
         <v>17</v>
       </c>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:F15" si="0">SUM(C6:E6)/3</f>
+        <v>16.5</v>
+      </c>
       <c r="H6" s="11">
         <v>10</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" ref="I6:J15" si="0">C6-4.5</f>
+        <f t="shared" ref="I6:J15" si="1">C6-4.5</f>
         <v>12</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="K6" s="10">
-        <f t="shared" ref="K6:K15" si="1">E6-5</f>
+        <f t="shared" ref="K6:K15" si="2">E6-5</f>
         <v>12</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="2">(I6+J6+K6)/3</f>
+        <f t="shared" ref="M6:M15" si="3">(I6+J6+K6)/3</f>
         <v>11.833333333333334</v>
       </c>
     </row>
@@ -5472,23 +5725,27 @@
       <c r="E7" s="13">
         <v>26</v>
       </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
+      </c>
       <c r="H7" s="11">
         <v>20</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
       <c r="K7" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.666666666666668</v>
       </c>
     </row>
@@ -5505,23 +5762,27 @@
       <c r="E8" s="13">
         <v>31</v>
       </c>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>31.666666666666668</v>
+      </c>
       <c r="H8" s="11">
         <v>30</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
@@ -5538,23 +5799,27 @@
       <c r="E9" s="13">
         <v>37.5</v>
       </c>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>37.166666666666664</v>
+      </c>
       <c r="H9" s="11">
         <v>40</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.5</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.5</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
     </row>
@@ -5571,23 +5836,27 @@
       <c r="E10" s="13">
         <v>42.5</v>
       </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
       <c r="H10" s="11">
         <v>50</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.5</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
     </row>
@@ -5604,23 +5873,27 @@
       <c r="E11" s="13">
         <v>47</v>
       </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>46.166666666666664</v>
+      </c>
       <c r="H11" s="11">
         <v>60</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.5</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.5</v>
       </c>
     </row>
@@ -5637,23 +5910,27 @@
       <c r="E12" s="13">
         <v>52</v>
       </c>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="H12" s="11">
         <v>70</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.5</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.5</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46.333333333333336</v>
       </c>
     </row>
@@ -5670,23 +5947,27 @@
       <c r="E13" s="13">
         <v>56</v>
       </c>
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>55.166666666666664</v>
+      </c>
       <c r="H13" s="11">
         <v>80</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
     </row>
@@ -5703,23 +5984,27 @@
       <c r="E14" s="13">
         <v>60</v>
       </c>
+      <c r="F14" s="22">
+        <f t="shared" si="0"/>
+        <v>59.333333333333336</v>
+      </c>
       <c r="H14" s="11">
         <v>90</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.5</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.5</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54.666666666666664</v>
       </c>
     </row>
@@ -5736,23 +6021,27 @@
       <c r="E15" s="13">
         <v>65</v>
       </c>
+      <c r="F15" s="22">
+        <f t="shared" si="0"/>
+        <v>64.166666666666671</v>
+      </c>
       <c r="H15" s="11">
         <v>100</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.5</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59.5</v>
       </c>
     </row>
@@ -5773,7 +6062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
